--- a/biology/Botanique/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot.xlsx
+++ b/biology/Botanique/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbe Nicole Ponsardin, épouse Clicquot, dite la Veuve Clicquot, née le 16 décembre 1777 à Reims et morte le 29 juillet 1866 à Boursault, est une femme d'affaires française et la première femme à diriger une maison de Champagne.
 </t>
@@ -511,32 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbe-Nicole Ponsardin naît à Reims le 16 décembre 1777[1],[2]. Elle est la fille du Baron Ponce-Jean Nicolas Ponsardin[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbe-Nicole Ponsardin naît à Reims le 16 décembre 1777,. Elle est la fille du Baron Ponce-Jean Nicolas Ponsardin,.
 Enfant, elle est scolarisée à l'abbaye Saint-Pierre-les-Dames, établissement dont son père la retire, peu avant la Révolution. Elle est donc cachée chez une couturière.
-Après la fin de la Terreur, elle retourne vivre chez ses parents, où elle reçoit une éducation à domicile[3].
-Barbe-Nicole est mariée à François Clicquot[2],[3],[4],[5], le 12 juin 1798[2],[3]. La cérémonie a lieu dans une cave, avec un prêtre réfractaire[2],[3],[5]. Ce dernier offre au couple un ouvrage de Dom Pérignon[2].
-Avec son époux, elle parcourt les coteaux champenois. Ensemble ils font le tour de tous les domaines de champagne[3].
-François Clicquot, meurt le 23 octobre 1805[2],[3], emporté par une « fièvre maligne »[3].
-Elle décède à Boursault, le 29 juillet 1866, à l'âge de 88 ans[1]. Elle repose à Reims dans le canton 2 du cimetière du Nord[6].
-À la tête de l'établissement Clicquot
-Malgré le fait qu'elle soit mère d'une fille de trois ans[2], Barbe-Nicole Clicquot-Ponsardin reprend la maison de champagne créée en 1772[2],[3],[4],[5]. Elle décide alors de s'opposer à la vente des vignes et de prendre les rênes de l'établissement, malgré les objections de sa belle famille.
-Elle s'entoure alors de Louis Bohne[3],[4],[5] ainsi que d'Alexandre Fourneaux[2],[3] de la maison de Champagne Fourneaux &amp; Cie (aujourd’hui Taittinger)[4]. Devant les difficultés de l'établissement, ce dernier s'éloignera de Barbe-Nicole, en 1810[2].
-Par la suite, le beau-père de Barbe-Nicole acceptera de l'aider et deviendra un important mécène[2],[3].
-En 1811, elle commercialise la cuvée Vin de la comète[2].
-Avec Antoine-Aloys de Muller, le chef de cave[2], elle invente le procédé de « la table de remuage », permettant d'obtenir des « vins plus clairs, nets et limpides »[2],[3],[4],[5].
-Malgré les guerres napoléoniennes, Barbe-Nicole envoie ses correspondants à travers toute l’Europe. Ces derniers voyagent sous pavillon américain, afin d’éviter le blocus anglais.
-En 1831, Barbe-Nicole prend pour associé Édouard Werlé, stagiaire de la maison[2],[3],[4] depuis 1821[3],[4].
-Surnommée « la Veuve Clicquot » ou « la grande dame de la Champagne »[3], elle sut diriger son entreprise et à sa mort, la Maison Veuve Clicquot Ponsardin commercialisait 750 000 bouteilles et expédiait sa production dans de nombreux pays[4].
-Elle fut associée au baron Ferdinand de Sachs.
-Peu à peu, elle acquiert des vignes parmi les meilleurs crus, à Bouzy, à Verzy et à Verzenay dans la montagne de Reims, à Avize, au Mesnil-sur-Oger dans la Côte des Blancs, constituant ainsi l’exceptionnel patrimoine viticole de la Maison constitué aujourd'hui de 515 hectares.
-[réf. nécessaire]
-Développement du marché russe
-À partir de 1806, Louis Bohne, chargé de l'exportation en Russie, s'y rend à de nombreuses reprises[2],[3],[4]. Très vite le champagne s'y impose, notamment à la cour du tsar Alexandre Ier[3]. À la chute de Napoléon Ier, elle envoie en particulier un vaisseau chargé de son champagne à Saint-Pétersbourg en 1814, devançant ainsi les maisons concurrentes[2],[3],[4].
-Mécénat
-En 1822, Barbe-Nicole crée, à Reims, une banque afin de financer le négoce rémois. L'établissement fermera en 1827, laissant une dette de 700 000 francs[4].
-De 1842 à 1849, elle fait reconstruire pour sa fille, la comtesse de Chevigné, le château de Boursault à Boursault, où elle se retire[3],[5].
+Après la fin de la Terreur, elle retourne vivre chez ses parents, où elle reçoit une éducation à domicile.
+Barbe-Nicole est mariée à François Clicquot le 12 juin 1798,. La cérémonie a lieu dans une cave, avec un prêtre réfractaire. Ce dernier offre au couple un ouvrage de Dom Pérignon.
+Avec son époux, elle parcourt les coteaux champenois. Ensemble ils font le tour de tous les domaines de champagne.
+François Clicquot, meurt le 23 octobre 1805 emporté par une « fièvre maligne ».
+Elle décède à Boursault, le 29 juillet 1866, à l'âge de 88 ans. Elle repose à Reims dans le canton 2 du cimetière du Nord.
 </t>
         </is>
       </c>
@@ -562,14 +559,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Descendance</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sa fille, Clémentine Clicquot (Reims, 20 mars 1799 - Reims, 6 avril 1863), mariée le 13 septembre 1817 à Louis Marie Joseph, comte de Chevigné (Chavagnes-en-Paillers, 30 janvier 1793 - Reims, 19 novembre 1876).
-Sa petite-fille, Marie-Clémentine de Chevigné (Reims, 15 juin 1818 - Paris, 24 octobre 1877), mariée le 20 mai 1839 à Louis de Rochechouart, comte de Mortemart (Paris, 29 octobre 1809 - Paris, 28 avril 1873).
-Son arrière-petite-fille, Anne de Rochechouart de Mortemart (Paris, 10 février 1847 - Dampierre, 3 février 1933), mariée le 10 mai 1867 à Emmanuel de Crussol, duc d'Uzès (Paris, 18 janvier 1840 - Paris, 28 novembre 1878). Elle deviendra la célèbre Duchesse d'Uzès dont le nom est consacré par l'Histoire[7].</t>
+          <t>À la tête de l'établissement Clicquot</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Malgré le fait qu'elle soit mère d'une fille de trois ans, Barbe-Nicole Clicquot-Ponsardin reprend la maison de champagne créée en 1772. Elle décide alors de s'opposer à la vente des vignes et de prendre les rênes de l'établissement, malgré les objections de sa belle famille.
+Elle s'entoure alors de Louis Bohne ainsi que d'Alexandre Fourneaux, de la maison de Champagne Fourneaux &amp; Cie (aujourd’hui Taittinger). Devant les difficultés de l'établissement, ce dernier s'éloignera de Barbe-Nicole, en 1810.
+Par la suite, le beau-père de Barbe-Nicole acceptera de l'aider et deviendra un important mécène,.
+En 1811, elle commercialise la cuvée Vin de la comète.
+Avec Antoine-Aloys de Muller, le chef de cave, elle invente le procédé de « la table de remuage », permettant d'obtenir des « vins plus clairs, nets et limpides ».
+Malgré les guerres napoléoniennes, Barbe-Nicole envoie ses correspondants à travers toute l’Europe. Ces derniers voyagent sous pavillon américain, afin d’éviter le blocus anglais.
+En 1831, Barbe-Nicole prend pour associé Édouard Werlé, stagiaire de la maison depuis 1821,.
+Surnommée « la Veuve Clicquot » ou « la grande dame de la Champagne », elle sut diriger son entreprise et à sa mort, la Maison Veuve Clicquot Ponsardin commercialisait 750 000 bouteilles et expédiait sa production dans de nombreux pays.
+Elle fut associée au baron Ferdinand de Sachs.
+Peu à peu, elle acquiert des vignes parmi les meilleurs crus, à Bouzy, à Verzy et à Verzenay dans la montagne de Reims, à Avize, au Mesnil-sur-Oger dans la Côte des Blancs, constituant ainsi l’exceptionnel patrimoine viticole de la Maison constitué aujourd'hui de 515 hectares.
+[réf. nécessaire]</t>
         </is>
       </c>
     </row>
@@ -594,14 +605,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À la tête de l'établissement Clicquot</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Développement du marché russe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1806, Louis Bohne, chargé de l'exportation en Russie, s'y rend à de nombreuses reprises. Très vite le champagne s'y impose, notamment à la cour du tsar Alexandre Ier. À la chute de Napoléon Ier, elle envoie en particulier un vaisseau chargé de son champagne à Saint-Pétersbourg en 1814, devançant ainsi les maisons concurrentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mécénat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1822, Barbe-Nicole crée, à Reims, une banque afin de financer le négoce rémois. L'établissement fermera en 1827, laissant une dette de 700 000 francs.
+De 1842 à 1849, elle fait reconstruire pour sa fille, la comtesse de Chevigné, le château de Boursault à Boursault, où elle se retire,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Descendance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sa fille, Clémentine Clicquot (Reims, 20 mars 1799 - Reims, 6 avril 1863), mariée le 13 septembre 1817 à Louis Marie Joseph, comte de Chevigné (Chavagnes-en-Paillers, 30 janvier 1793 - Reims, 19 novembre 1876).
+Sa petite-fille, Marie-Clémentine de Chevigné (Reims, 15 juin 1818 - Paris, 24 octobre 1877), mariée le 20 mai 1839 à Louis de Rochechouart, comte de Mortemart (Paris, 29 octobre 1809 - Paris, 28 avril 1873).
+Son arrière-petite-fille, Anne de Rochechouart de Mortemart (Paris, 10 février 1847 - Dampierre, 3 février 1933), mariée le 10 mai 1867 à Emmanuel de Crussol, duc d'Uzès (Paris, 18 janvier 1840 - Paris, 28 novembre 1878). Elle deviendra la célèbre Duchesse d'Uzès dont le nom est consacré par l'Histoire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbe-Nicole_Clicquot-Ponsardin_Veuve_Clicquot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Postérité et culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1972, la maison de champagne Veuve Clicquot Ponsardin a créé un prix annuel en son honneur, le prix Veuve Clicquot récompensant des femmes chef d'entreprises ou manager. Ce prix existe désormais dans 18 pays.
 L'histoire de Barbe Nicole Clicquot a inspiré au groupe Beirut une chanson, « Cliquot », racontant son histoire, dans son deuxième album, The Flying Club Cup.
-En 2009, Elvire de Brissac publie le roman Voyage imaginaire autour de Barbe Nicole Ponsardin, veuve Clicquot, 1777-1866 aux Éditions Grasset[8].
+En 2009, Elvire de Brissac publie le roman Voyage imaginaire autour de Barbe Nicole Ponsardin, veuve Clicquot, 1777-1866 aux Éditions Grasset.
 </t>
         </is>
       </c>
